--- a/BaseTest/KeywordTestProject/src/main/testData/ExcelSheets/DataEngine.xlsx
+++ b/BaseTest/KeywordTestProject/src/main/testData/ExcelSheets/DataEngine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD9CB8A-C380-4E88-AF38-C6B4A374C32C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E87FE-DDDD-4559-A220-493487B131D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>linkSignOut</t>
+  </si>
+  <si>
+    <t>My account - My Store</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,13 +919,18 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>38</v>
@@ -1015,6 +1023,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1031,9 @@
       <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -1030,7 +1041,9 @@
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1062,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{525C028F-802E-4649-A9B6-8EE971963038}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C10:C16 C18:C1048576" xr:uid="{525C028F-802E-4649-A9B6-8EE971963038}">
       <formula1>$G$2:$G$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D7 D10:D15 D18:D1048576" xr:uid="{55DF02BC-A63D-46B6-96C0-5B46CAD70E57}">
@@ -1061,5 +1074,6 @@
     <hyperlink ref="E13" r:id="rId2" xr:uid="{A8D3C3FC-BABD-4E9E-8356-FA789B2938E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>